--- a/Raspberry Pi Pinout.xlsx
+++ b/Raspberry Pi Pinout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d6f89885a3ec42f/Fcenail/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{C2D16B7E-B24C-48AB-85DC-5924701D534D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D85D56F2-B226-4908-8A06-91084024F04B}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{C2D16B7E-B24C-48AB-85DC-5924701D534D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6BCA9C4D-BBFC-4281-A9CF-04CC90C9223A}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -844,9 +844,6 @@
     <t>Switch</t>
   </si>
   <si>
-    <t>6mm</t>
-  </si>
-  <si>
     <t>8mm</t>
   </si>
   <si>
@@ -929,6 +926,9 @@
   </si>
   <si>
     <t>(from right to left from back)</t>
+  </si>
+  <si>
+    <t>10mm</t>
   </si>
 </sst>
 </file>
@@ -1374,20 +1374,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1439,6 +1427,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1740,7 +1740,7 @@
   <dimension ref="B1:AB48"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="T40" sqref="T40"/>
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1772,17 +1772,17 @@
   <sheetData>
     <row r="1" spans="2:28" ht="21" x14ac:dyDescent="0.65">
       <c r="C1" s="13"/>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="59"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="81"/>
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
       <c r="O1" s="13"/>
-      <c r="U1" s="64" t="s">
-        <v>61</v>
+      <c r="U1" s="60" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="2:28" ht="3.75" customHeight="1" x14ac:dyDescent="0.65">
@@ -1814,7 +1814,7 @@
       <c r="O3" s="13"/>
     </row>
     <row r="4" spans="2:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="63" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="14"/>
@@ -1838,20 +1838,20 @@
         <v>0</v>
       </c>
       <c r="O4" s="14"/>
-      <c r="P4" s="70" t="s">
-        <v>60</v>
+      <c r="P4" s="66" t="s">
+        <v>59</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:28" ht="3" customHeight="1" x14ac:dyDescent="0.65">
@@ -1875,7 +1875,7 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="2:28" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="63" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="14"/>
@@ -1899,20 +1899,20 @@
         <v>0</v>
       </c>
       <c r="O6" s="14"/>
-      <c r="P6" s="73" t="s">
+      <c r="P6" s="69" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="76" t="s">
         <v>33</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:28" ht="3" customHeight="1" x14ac:dyDescent="0.65">
@@ -1936,7 +1936,7 @@
       <c r="S7" s="2"/>
     </row>
     <row r="8" spans="2:28" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="64" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="15"/>
@@ -1960,23 +1960,23 @@
         <v>30</v>
       </c>
       <c r="O8" s="15"/>
-      <c r="P8" s="74" t="s">
+      <c r="P8" s="70" t="s">
         <v>32</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
-      <c r="U8" s="70" t="s">
+      <c r="U8" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="W8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X8" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:28" ht="3" customHeight="1" x14ac:dyDescent="0.65">
@@ -2022,20 +2022,20 @@
         <v>5</v>
       </c>
       <c r="O10" s="14"/>
-      <c r="P10" s="75" t="s">
+      <c r="P10" s="71" t="s">
         <v>38</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
-      <c r="U10" s="75" t="s">
+      <c r="U10" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="V10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="W10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:28" ht="3" customHeight="1" x14ac:dyDescent="0.65">
@@ -2059,7 +2059,7 @@
       <c r="S11" s="2"/>
     </row>
     <row r="12" spans="2:28" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="65" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="14"/>
@@ -2083,20 +2083,20 @@
         <v>6</v>
       </c>
       <c r="O12" s="14"/>
-      <c r="P12" s="75" t="s">
+      <c r="P12" s="71" t="s">
         <v>39</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W12" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:28" ht="3" customHeight="1" x14ac:dyDescent="0.65">
@@ -2190,20 +2190,20 @@
         <v>30</v>
       </c>
       <c r="O16" s="15"/>
-      <c r="P16" s="76" t="s">
+      <c r="P16" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="U16" s="63" t="s">
-        <v>70</v>
+      <c r="U16" s="59" t="s">
+        <v>69</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>54</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z16" s="63" t="s">
-        <v>80</v>
+        <v>73</v>
+      </c>
+      <c r="Z16" s="59" t="s">
+        <v>79</v>
       </c>
       <c r="AA16" s="1">
         <v>1</v>
@@ -2233,7 +2233,7 @@
       <c r="S17" s="2"/>
     </row>
     <row r="18" spans="2:28" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="61" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="14"/>
@@ -2257,17 +2257,17 @@
         <v>29</v>
       </c>
       <c r="O18" s="14"/>
-      <c r="P18" s="65" t="s">
+      <c r="P18" s="61" t="s">
         <v>46</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z18" s="83" t="s">
-        <v>84</v>
+        <v>74</v>
+      </c>
+      <c r="Z18" s="79" t="s">
+        <v>83</v>
       </c>
       <c r="AA18" s="1">
         <v>2</v>
@@ -2297,7 +2297,7 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="2:28" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="71" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="14"/>
@@ -2321,14 +2321,14 @@
         <v>28</v>
       </c>
       <c r="O20" s="14"/>
-      <c r="P20" s="65" t="s">
+      <c r="P20" s="61" t="s">
         <v>47</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AA20" s="1">
         <v>3</v>
@@ -2380,20 +2380,20 @@
         <v>30</v>
       </c>
       <c r="O22" s="15"/>
-      <c r="P22" s="66" t="s">
+      <c r="P22" s="62" t="s">
         <v>48</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AA22" s="1">
         <v>4</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="2:28" ht="3" customHeight="1" x14ac:dyDescent="0.65">
@@ -2444,7 +2444,7 @@
         <v>5</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="2:28" ht="3" customHeight="1" x14ac:dyDescent="0.65">
@@ -2491,20 +2491,20 @@
       </c>
       <c r="O26" s="14"/>
       <c r="P26" s="37"/>
-      <c r="U26" s="63" t="s">
+      <c r="U26" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="V26" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="V26" s="82" t="s">
-        <v>77</v>
-      </c>
       <c r="W26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AA26" s="1">
         <v>6</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="2:28" ht="3" customHeight="1" x14ac:dyDescent="0.65">
@@ -2528,7 +2528,7 @@
       <c r="S27" s="2"/>
     </row>
     <row r="28" spans="2:28" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="61" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="14"/>
@@ -2554,10 +2554,10 @@
       <c r="O28" s="14"/>
       <c r="P28" s="37"/>
       <c r="V28" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="2:28" ht="3" customHeight="1" x14ac:dyDescent="0.65">
@@ -2605,10 +2605,10 @@
       <c r="O30" s="14"/>
       <c r="P30" s="37"/>
       <c r="V30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="2:28" ht="3" customHeight="1" x14ac:dyDescent="0.65">
@@ -2632,7 +2632,7 @@
       <c r="S31" s="2"/>
     </row>
     <row r="32" spans="2:28" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="73" t="s">
         <v>51</v>
       </c>
       <c r="C32" s="15"/>
@@ -2656,7 +2656,7 @@
         <v>30</v>
       </c>
       <c r="O32" s="15"/>
-      <c r="P32" s="77" t="s">
+      <c r="P32" s="73" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       <c r="S33" s="2"/>
     </row>
     <row r="34" spans="2:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B34" s="78" t="s">
+      <c r="B34" s="74" t="s">
         <v>52</v>
       </c>
       <c r="C34" s="14"/>
@@ -2705,7 +2705,7 @@
         <v>26</v>
       </c>
       <c r="O34" s="14"/>
-      <c r="P34" s="71" t="s">
+      <c r="P34" s="67" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2752,7 +2752,7 @@
         <v>30</v>
       </c>
       <c r="O36" s="15"/>
-      <c r="P36" s="72" t="s">
+      <c r="P36" s="68" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       <c r="S41" s="2"/>
     </row>
     <row r="42" spans="2:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B42" s="78" t="s">
+      <c r="B42" s="74" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="14"/>
@@ -2930,17 +2930,17 @@
     <row r="45" spans="2:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="46" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="47" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B47" s="60"/>
+      <c r="B47" s="58"/>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B48" s="60"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="62"/>
-      <c r="N48" s="62"/>
+      <c r="B48" s="58"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="83"/>
+      <c r="J48" s="83"/>
+      <c r="K48" s="83"/>
+      <c r="L48" s="83"/>
+      <c r="M48" s="83"/>
+      <c r="N48" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="2">
